--- a/biology/Histoire de la zoologie et de la botanique/Johann_Georg_Altmann/Johann_Georg_Altmann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Georg_Altmann/Johann_Georg_Altmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Georg Altmann, né le 21 avril 1695 à Zofingue et mort le 18 mars 1758 à Anet, est un pasteur et intellectuel suisse du XVIIIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Johann, est pasteur et maître à l'école. Il étudie la théologie à Berne, est consacré pasteur en 1725. C'est un représentant typique des lumières bernoises. Il écrit contre les piétistes, historien, naturaliste et auteur de travaux sur les Alpes. 
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hanspeter Stucker, « Johann Georg Altmann » dans le Dictionnaire historique de la Suisse en ligne.
 Johann Georg Altmann, Essai d'une description historique et physique des montagnes helvetiques  (Illustrations et textes), ainsi que L'état et les délices de la Suisse (illustrations et textes), sur Viatimages.</t>
